--- a/Items.xlsx
+++ b/Items.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
   <si>
     <t>Armes</t>
   </si>
@@ -130,13 +130,49 @@
     <t>Boublier</t>
   </si>
   <si>
-    <t>Quelques planches collées les unes aux autres</t>
-  </si>
-  <si>
     <t>1 atq physique</t>
   </si>
   <si>
     <t>(-1) esquive</t>
+  </si>
+  <si>
+    <t>6 robustesse</t>
+  </si>
+  <si>
+    <t>Bouclier de gladiateur</t>
+  </si>
+  <si>
+    <t>Bouclier standard dans les arènes de gladiateur</t>
+  </si>
+  <si>
+    <t>2 atq physique</t>
+  </si>
+  <si>
+    <t>(-3) esquive</t>
+  </si>
+  <si>
+    <t>Quelques planches collées les unes aux autres servant de bouclier</t>
+  </si>
+  <si>
+    <t>10 atq physique</t>
+  </si>
+  <si>
+    <t>10 fatigue</t>
+  </si>
+  <si>
+    <t>Bouclier du feu follé</t>
+  </si>
+  <si>
+    <t>Bouclier léger ayant d'étranges propriétés magiques</t>
+  </si>
+  <si>
+    <t>10 atq magique</t>
+  </si>
+  <si>
+    <t>8 robustesse</t>
+  </si>
+  <si>
+    <t>18 robustesse</t>
   </si>
 </sst>
 </file>
@@ -513,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,13 +804,13 @@
         <v>10</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H14" s="3"/>
     </row>
@@ -785,9 +821,99 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="3"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="4">
+        <v>28</v>
+      </c>
+      <c r="D17" s="4">
+        <v>45</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="3">
+        <v>10</v>
+      </c>
+      <c r="D20" s="3">
+        <v>210</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Items.xlsx
+++ b/Items.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>Armes</t>
   </si>
@@ -43,24 +43,12 @@
     <t>Dague Rutherfordium</t>
   </si>
   <si>
-    <t>100 atq physique</t>
-  </si>
-  <si>
-    <t>100 esquive</t>
-  </si>
-  <si>
     <t>Dague en bois</t>
   </si>
   <si>
     <t>arme</t>
   </si>
   <si>
-    <t>2 esquive</t>
-  </si>
-  <si>
-    <t>5 atq physique</t>
-  </si>
-  <si>
     <t>Petite dague en bois , peu efficace en combat mais tres belle ouvrage</t>
   </si>
   <si>
@@ -82,84 +70,33 @@
     <t>Dague de fabrication strandard, très répendue</t>
   </si>
   <si>
-    <t>8 atq physique</t>
-  </si>
-  <si>
-    <t>5 esquive</t>
-  </si>
-  <si>
     <t>Possibilité de faire saigner l'enemis sur plusieurs tours</t>
   </si>
   <si>
-    <t>45 atq physique</t>
-  </si>
-  <si>
     <t>atq phys = 25% atq phys + 25% atq esquive</t>
   </si>
   <si>
-    <t>Probabilité de saignement (5/tours)</t>
-  </si>
-  <si>
     <t>Dague équipée d'un grand chalumeau au lieu d'une lame</t>
   </si>
   <si>
-    <t>42 atq physique</t>
-  </si>
-  <si>
-    <t>Probabilité de brûlure (3/tours)</t>
-  </si>
-  <si>
     <t>Dague maudite par les démons primordiaux</t>
   </si>
   <si>
-    <t>30 atq physique</t>
-  </si>
-  <si>
-    <t>20 robustesse</t>
-  </si>
-  <si>
     <t>40 atq physique</t>
   </si>
   <si>
-    <t>60 atq physique</t>
-  </si>
-  <si>
-    <t>30 fatigue</t>
-  </si>
-  <si>
     <t>Boublier</t>
   </si>
   <si>
-    <t>1 atq physique</t>
-  </si>
-  <si>
-    <t>(-1) esquive</t>
-  </si>
-  <si>
-    <t>6 robustesse</t>
-  </si>
-  <si>
     <t>Bouclier de gladiateur</t>
   </si>
   <si>
     <t>Bouclier standard dans les arènes de gladiateur</t>
   </si>
   <si>
-    <t>2 atq physique</t>
-  </si>
-  <si>
-    <t>(-3) esquive</t>
-  </si>
-  <si>
     <t>Quelques planches collées les unes aux autres servant de bouclier</t>
   </si>
   <si>
-    <t>10 atq physique</t>
-  </si>
-  <si>
-    <t>10 fatigue</t>
-  </si>
-  <si>
     <t>Bouclier du feu follé</t>
   </si>
   <si>
@@ -169,10 +106,63 @@
     <t>10 atq magique</t>
   </si>
   <si>
-    <t>8 robustesse</t>
-  </si>
-  <si>
-    <t>18 robustesse</t>
+    <t>10 atq magique
+8 robustesse</t>
+  </si>
+  <si>
+    <t>2 atq physique
+(-3) esquive
+18 robustesse</t>
+  </si>
+  <si>
+    <t>10 atq physique
+10 fatigue</t>
+  </si>
+  <si>
+    <t>1 atq physique
+6 robustesse
+(-1) esquive</t>
+  </si>
+  <si>
+    <t>60 atq physique
+30 fatigue</t>
+  </si>
+  <si>
+    <t>42 atq physique
+Probabilité de brûlure (3/tours)</t>
+  </si>
+  <si>
+    <t>45 atq physique
+20 robustesse</t>
+  </si>
+  <si>
+    <t>30 atq physique
+Probabilité de saignement (5/tours)</t>
+  </si>
+  <si>
+    <t>8 atq physique
+5 esquive</t>
+  </si>
+  <si>
+    <t>5 atq physique
+2 esquive</t>
+  </si>
+  <si>
+    <t>100 atq physique
+100 esquive</t>
+  </si>
+  <si>
+    <t>Bouclier du Chalala</t>
+  </si>
+  <si>
+    <t>Bouclier bénis d'un dieu chat feignant se cachant derrière</t>
+  </si>
+  <si>
+    <t>60 atq physique (perd 5 atq par tour)</t>
+  </si>
+  <si>
+    <t>20 vie (perma)
+10 robustesse</t>
   </si>
 </sst>
 </file>
@@ -228,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -236,14 +226,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -549,372 +564,274 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="77" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="41.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="77" style="13" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="41.140625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="6">
         <v>25</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="6">
         <v>675000</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="8">
+        <v>3</v>
+      </c>
+      <c r="D3" s="8">
+        <v>15</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="10">
+        <v>10</v>
+      </c>
+      <c r="D4" s="10">
+        <v>120</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="8">
+        <v>8</v>
+      </c>
+      <c r="D5" s="8">
+        <v>430</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="6">
         <v>20</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="D6" s="6">
+        <v>835</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="8">
         <v>12</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="D7" s="8">
+        <v>1525</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="6">
+        <v>20</v>
+      </c>
+      <c r="D8" s="6">
+        <v>10</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="4">
-        <v>3</v>
-      </c>
-      <c r="D4" s="4">
-        <v>15</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="5">
-        <v>10</v>
-      </c>
-      <c r="D6" s="5">
-        <v>120</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="4">
-        <v>8</v>
-      </c>
-      <c r="D8" s="4">
-        <v>430</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="C9" s="8">
+        <v>28</v>
+      </c>
+      <c r="D9" s="8">
+        <v>45</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4" t="s">
+    </row>
+    <row r="10" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="3">
-        <v>20</v>
-      </c>
-      <c r="D10" s="3">
-        <v>835</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="C10" s="6">
+        <v>10</v>
+      </c>
+      <c r="D10" s="6">
+        <v>210</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="3" t="s">
+      <c r="F10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="12">
+        <v>30</v>
+      </c>
+      <c r="D11" s="12">
+        <v>380</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="4">
-        <v>12</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1525</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="3">
-        <v>20</v>
-      </c>
-      <c r="D14" s="3">
-        <v>10</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="4">
-        <v>28</v>
-      </c>
-      <c r="D17" s="4">
-        <v>45</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="3">
-        <v>10</v>
-      </c>
-      <c r="D20" s="3">
-        <v>210</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H21" s="3"/>
-    </row>
+    </row>
+    <row r="12" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/Items.xlsx
+++ b/Items.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>Armes</t>
   </si>
@@ -163,6 +163,57 @@
   <si>
     <t>20 vie (perma)
 10 robustesse</t>
+  </si>
+  <si>
+    <t>Le Mur</t>
+  </si>
+  <si>
+    <t>Immense bouclier permettant d'encaisser d'énormes dégâts</t>
+  </si>
+  <si>
+    <t>(-20) esquive
+40 robustesse</t>
+  </si>
+  <si>
+    <t>30 atq physique</t>
+  </si>
+  <si>
+    <t>Poigne démoniaque</t>
+  </si>
+  <si>
+    <t>Etrange gant aspirant la vitalité de l'utilisateur pour le protéger lors d'un attaque</t>
+  </si>
+  <si>
+    <t>(-15)% vie (perma)
+55 robustesse</t>
+  </si>
+  <si>
+    <t>25 atq magique
+20 robustesse</t>
+  </si>
+  <si>
+    <t>Epée en bois</t>
+  </si>
+  <si>
+    <t>Epée en acier</t>
+  </si>
+  <si>
+    <t>Stormbringer</t>
+  </si>
+  <si>
+    <t>Mournblade</t>
+  </si>
+  <si>
+    <t>Glaive</t>
+  </si>
+  <si>
+    <t>Rapière fantomatique</t>
+  </si>
+  <si>
+    <t>Epée d'entrainement des plus basique</t>
+  </si>
+  <si>
+    <t>7 atq physique</t>
   </si>
 </sst>
 </file>
@@ -218,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -231,34 +282,52 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -564,25 +633,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="77" style="13" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="41.140625" style="13" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="76.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
@@ -598,14 +667,14 @@
       <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -616,7 +685,7 @@
         <v>25</v>
       </c>
       <c r="D2" s="6">
-        <v>675000</v>
+        <v>5600</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>16</v>
@@ -624,79 +693,73 @@
       <c r="F2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>3</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>15</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7"/>
+      <c r="G3" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="8">
         <v>10</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="10">
-        <v>10</v>
-      </c>
-      <c r="D4" s="10">
-        <v>120</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="8">
+        <v>70</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="11" t="s">
+      <c r="F4" s="8"/>
+      <c r="G4" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>8</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>430</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="9" t="s">
+      <c r="F5" s="7"/>
+      <c r="G5" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
@@ -709,129 +772,262 @@
       <c r="E6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="6"/>
+      <c r="G6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="7">
+        <v>12</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1525</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="6">
+        <v>20</v>
+      </c>
+      <c r="D9" s="6">
         <v>10</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
+      <c r="E9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="7">
+        <v>28</v>
+      </c>
+      <c r="D10" s="7">
+        <v>45</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="6">
+        <v>10</v>
+      </c>
+      <c r="D11" s="6">
+        <v>210</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="7">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7">
+        <v>380</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="6">
+        <v>50</v>
+      </c>
+      <c r="D13" s="6">
+        <v>610</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="7">
+        <v>2</v>
+      </c>
+      <c r="D14" s="7">
+        <v>4800</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="6">
+        <v>8</v>
+      </c>
+      <c r="D16" s="6">
+        <v>20</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="7">
+        <v>16</v>
+      </c>
+      <c r="D17" s="7">
+        <v>100</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="6">
+        <v>30</v>
+      </c>
+      <c r="D18" s="6">
+        <v>6500</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="7">
+        <v>30</v>
+      </c>
+      <c r="D19" s="7">
+        <v>6500</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="6">
+        <v>20</v>
+      </c>
+      <c r="D20" s="6">
+        <v>350</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="7">
         <v>15</v>
       </c>
-      <c r="C7" s="8">
-        <v>12</v>
-      </c>
-      <c r="D7" s="8">
-        <v>1525</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="6">
-        <v>20</v>
-      </c>
-      <c r="D8" s="6">
-        <v>10</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="8">
-        <v>28</v>
-      </c>
-      <c r="D9" s="8">
-        <v>45</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="6">
-        <v>10</v>
-      </c>
-      <c r="D10" s="6">
-        <v>210</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="12">
-        <v>30</v>
-      </c>
-      <c r="D11" s="12">
-        <v>380</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="D21" s="7">
+        <v>650</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/Items.xlsx
+++ b/Items.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>Armes</t>
   </si>
@@ -181,9 +181,6 @@
     <t>Poigne démoniaque</t>
   </si>
   <si>
-    <t>Etrange gant aspirant la vitalité de l'utilisateur pour le protéger lors d'un attaque</t>
-  </si>
-  <si>
     <t>(-15)% vie (perma)
 55 robustesse</t>
   </si>
@@ -214,13 +211,34 @@
   </si>
   <si>
     <t>7 atq physique</t>
+  </si>
+  <si>
+    <t>Dague</t>
+  </si>
+  <si>
+    <t>Bouclier</t>
+  </si>
+  <si>
+    <t>Épée</t>
+  </si>
+  <si>
+    <t>Armure
+casque</t>
+  </si>
+  <si>
+    <t>Armure
+jambière</t>
+  </si>
+  <si>
+    <t>Armure 
+corps</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,6 +249,14 @@
     <font>
       <b/>
       <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -269,17 +295,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -328,6 +345,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -633,400 +665,437 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="76.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" style="19" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="76.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="3">
         <v>25</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="3">
         <v>5600</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="8" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="20"/>
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="4">
         <v>3</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="4">
         <v>15</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="12" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="13"/>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="20"/>
+      <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="5">
         <v>10</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="5">
         <v>70</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="14" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="15"/>
+      <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="4">
         <v>8</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="4">
         <v>430</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="12" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="20"/>
+      <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="3">
         <v>20</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="3">
         <v>835</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="11" t="s">
+      <c r="F6" s="3"/>
+      <c r="G6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="20"/>
+      <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="4">
         <v>12</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="4">
         <v>1525</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="13" t="s">
+      <c r="F7" s="4"/>
+      <c r="G7" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="4"/>
+    <row r="8" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="20"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="3">
         <v>20</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="3">
         <v>10</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="11" t="s">
+      <c r="F9" s="3"/>
+      <c r="G9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="10"/>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="20"/>
+      <c r="B10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="4">
         <v>28</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="4">
         <v>45</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="12" t="s">
+      <c r="F10" s="4"/>
+      <c r="G10" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="3">
         <v>10</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="3">
         <v>210</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="11" t="s">
+      <c r="F11" s="3"/>
+      <c r="G11" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="7" t="s">
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="21"/>
+      <c r="B12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="4">
         <v>30</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="4">
         <v>380</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="12" t="s">
+      <c r="F12" s="4"/>
+      <c r="G12" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="20"/>
+      <c r="B13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="3">
         <v>50</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="3">
         <v>610</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="11" t="s">
+      <c r="F13" s="3"/>
+      <c r="G13" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
+      <c r="A14" s="20"/>
+      <c r="B14" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="4">
         <v>2</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="4">
         <v>4800</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="4">
+        <v>4800</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="12" t="s">
+      <c r="H14" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="H14" s="12" t="s">
+    </row>
+    <row r="15" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="20"/>
+    </row>
+    <row r="16" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="6" t="s">
+      <c r="C16" s="3">
+        <v>8</v>
+      </c>
+      <c r="D16" s="3">
+        <v>20</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="6">
-        <v>8</v>
-      </c>
-      <c r="D16" s="6">
+      <c r="C17" s="4">
+        <v>16</v>
+      </c>
+      <c r="D17" s="4">
+        <v>100</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="3">
+        <v>30</v>
+      </c>
+      <c r="D18" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="4">
+        <v>30</v>
+      </c>
+      <c r="D19" s="4">
+        <v>6500</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="3">
         <v>20</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="7">
-        <v>16</v>
-      </c>
-      <c r="D17" s="7">
-        <v>100</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="6">
-        <v>30</v>
-      </c>
-      <c r="D18" s="6">
-        <v>6500</v>
-      </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="7">
-        <v>30</v>
-      </c>
-      <c r="D19" s="7">
-        <v>6500</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="6" t="s">
+      <c r="D20" s="3">
+        <v>350</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="6">
-        <v>20</v>
-      </c>
-      <c r="D20" s="6">
-        <v>350</v>
-      </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="7">
+      <c r="C21" s="4">
         <v>15</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="4">
         <v>650</v>
       </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" spans="1:8" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Items.xlsx
+++ b/Items.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="79">
   <si>
     <t>Armes</t>
   </si>
@@ -192,9 +192,6 @@
     <t>Epée en bois</t>
   </si>
   <si>
-    <t>Epée en acier</t>
-  </si>
-  <si>
     <t>Stormbringer</t>
   </si>
   <si>
@@ -222,16 +219,60 @@
     <t>Épée</t>
   </si>
   <si>
-    <t>Armure
-casque</t>
-  </si>
-  <si>
-    <t>Armure
-jambière</t>
-  </si>
-  <si>
-    <t>Armure 
-corps</t>
+    <t>Casque</t>
+  </si>
+  <si>
+    <t>Jambière</t>
+  </si>
+  <si>
+    <t>Corps</t>
+  </si>
+  <si>
+    <t>Epée démoniaque forgée par les dieux du chaos. Possède une jumelle, Mournblade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10% des dégâts est convertie en pv
+50 atq  physique </t>
+  </si>
+  <si>
+    <t>10% des dégâts est convertie en pv
+50 atq magique</t>
+  </si>
+  <si>
+    <t>50 atq magique
+20 robustesse</t>
+  </si>
+  <si>
+    <t>50 atq physique
+20 robustesse</t>
+  </si>
+  <si>
+    <t>Arme standarde de facture militaire</t>
+  </si>
+  <si>
+    <t>25 atq physique</t>
+  </si>
+  <si>
+    <t>Fine lame fantomatique possédant d'étranges origines</t>
+  </si>
+  <si>
+    <t>Cimeterre</t>
+  </si>
+  <si>
+    <t>L’intérêt du cimeterre est sa lame courbée qui glisse sur les surfaces dures.</t>
+  </si>
+  <si>
+    <t>Epée démoniaque forgée par les dieux du chaos. Possède une jumelle, Stormbringer.</t>
+  </si>
+  <si>
+    <t>15 atq physique
+ignore 10% de la robustesse enemis</t>
+  </si>
+  <si>
+    <t>45  atq magique</t>
+  </si>
+  <si>
+    <t>30 atq magique</t>
   </si>
 </sst>
 </file>
@@ -665,22 +706,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="19" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="76.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="80.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
@@ -711,7 +752,7 @@
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
@@ -854,7 +895,7 @@
     </row>
     <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>23</v>
@@ -868,7 +909,9 @@
       <c r="E9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="G9" s="8" t="s">
         <v>33</v>
       </c>
@@ -971,9 +1014,7 @@
       <c r="D14" s="4">
         <v>4800</v>
       </c>
-      <c r="E14" s="4">
-        <v>4800</v>
-      </c>
+      <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="9" t="s">
         <v>50</v>
@@ -987,7 +1028,7 @@
     </row>
     <row r="16" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>52</v>
@@ -999,17 +1040,19 @@
         <v>20</v>
       </c>
       <c r="E16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C17" s="4">
         <v>16</v>
@@ -1017,14 +1060,18 @@
       <c r="D17" s="4">
         <v>100</v>
       </c>
-      <c r="E17" s="4"/>
+      <c r="E17" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="10"/>
+      <c r="G17" s="9" t="s">
+        <v>76</v>
+      </c>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" s="3">
         <v>30</v>
@@ -1032,14 +1079,20 @@
       <c r="D18" s="3">
         <v>6500</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="F18" s="3"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G18" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" s="4">
         <v>30</v>
@@ -1047,14 +1100,20 @@
       <c r="D19" s="4">
         <v>6500</v>
       </c>
-      <c r="E19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="F19" s="4"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
+      <c r="G19" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C20" s="3">
         <v>20</v>
@@ -1062,14 +1121,20 @@
       <c r="D20" s="3">
         <v>350</v>
       </c>
-      <c r="E20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="F20" s="3"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
+      <c r="G20" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" s="4">
         <v>15</v>
@@ -1077,24 +1142,30 @@
       <c r="D21" s="4">
         <v>650</v>
       </c>
-      <c r="E21" s="4"/>
+      <c r="E21" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="F21" s="4"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-    </row>
-    <row r="22" spans="1:8" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
+      <c r="G21" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="22" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
+    <row r="37" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="22" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Items.xlsx
+++ b/Items.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="104">
   <si>
     <t>Armes</t>
   </si>
@@ -273,6 +273,87 @@
   </si>
   <si>
     <t>30 atq magique</t>
+  </si>
+  <si>
+    <t>Capuche en cuir</t>
+  </si>
+  <si>
+    <t>Pentalon en cuir</t>
+  </si>
+  <si>
+    <t>Tunique en cuir</t>
+  </si>
+  <si>
+    <t>Bijou</t>
+  </si>
+  <si>
+    <t>tete</t>
+  </si>
+  <si>
+    <t>corps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>jambes</t>
+  </si>
+  <si>
+    <t>3 robustesse
+2 esquive</t>
+  </si>
+  <si>
+    <t>6 robustesse
+3 esquive</t>
+  </si>
+  <si>
+    <t>8 robustesse
+5 esquive</t>
+  </si>
+  <si>
+    <t>Capuche en tissu</t>
+  </si>
+  <si>
+    <t>Pentalon en tissu</t>
+  </si>
+  <si>
+    <t>2 robustesse
+3 atq magique</t>
+  </si>
+  <si>
+    <t>4 robustesse
+4 atq magique</t>
+  </si>
+  <si>
+    <t>4 robustesse
+6 atq magique</t>
+  </si>
+  <si>
+    <t>Robe en tissu</t>
+  </si>
+  <si>
+    <t>Tissu en laine de mouton, consu en forme de capuche</t>
+  </si>
+  <si>
+    <t>Cuir de vache tanné, consu en forme de capuche</t>
+  </si>
+  <si>
+    <t>Cuir de vache tanné, consu en forme de pentalon</t>
+  </si>
+  <si>
+    <t>Cuir de vache tanné, consu en forme de tunique</t>
+  </si>
+  <si>
+    <t>Tissu en laine de mouton, consu en forme de penalon</t>
+  </si>
+  <si>
+    <t>Tissu en laine de mouton, consu en forme de robe</t>
+  </si>
+  <si>
+    <t>Casque en fer</t>
+  </si>
+  <si>
+    <t>Jambière en fer</t>
   </si>
 </sst>
 </file>
@@ -336,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -401,6 +482,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -706,10 +790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1153,19 +1237,150 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B23" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="13">
+        <v>2</v>
+      </c>
+      <c r="D23" s="13">
+        <v>5</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="13">
+        <v>1</v>
+      </c>
+      <c r="D24" s="13">
+        <v>5</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="13">
+        <v>4</v>
+      </c>
+      <c r="D25" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G27" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="52.5" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B30" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="13">
+        <v>3</v>
+      </c>
+      <c r="D30" s="13">
+        <v>8</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B31" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="13">
+        <v>1</v>
+      </c>
+      <c r="D31" s="13">
+        <v>8</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G31" s="23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
         <v>64</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="13">
+        <v>4</v>
+      </c>
+      <c r="D37" s="13">
+        <v>12</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G37" s="23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B38" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="13">
+        <v>2</v>
+      </c>
+      <c r="D38" s="13">
+        <v>12</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G38" s="23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A44" s="20" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/Items.xlsx
+++ b/Items.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="128">
   <si>
     <t>Armes</t>
   </si>
@@ -293,9 +293,6 @@
     <t>corps</t>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
     <t>jambes</t>
   </si>
   <si>
@@ -354,6 +351,82 @@
   </si>
   <si>
     <t>Jambière en fer</t>
+  </si>
+  <si>
+    <t>6 robustesse</t>
+  </si>
+  <si>
+    <t>Armure en fer</t>
+  </si>
+  <si>
+    <t>Jambière rudimentaire en fer mais efficace</t>
+  </si>
+  <si>
+    <t>Casque rudimentaire en fer mais efficace</t>
+  </si>
+  <si>
+    <t>Quelques plaques de fer attachées les unes aux autres servant d'armure</t>
+  </si>
+  <si>
+    <t>13 robustesse</t>
+  </si>
+  <si>
+    <t>Casque de chevalier</t>
+  </si>
+  <si>
+    <t>Capuche en cuir +</t>
+  </si>
+  <si>
+    <t>Capuche en tissu +</t>
+  </si>
+  <si>
+    <t>15 robustesse</t>
+  </si>
+  <si>
+    <t>6 robustesse
+4 esquive</t>
+  </si>
+  <si>
+    <t>Casque de très bonne qualité, équipement standard pour la garde royal</t>
+  </si>
+  <si>
+    <t>Capuche en cuir de qualité supérieur, utilisé pour la fabrication d'armure</t>
+  </si>
+  <si>
+    <t>Capuche en tissu de qualité supérieur, utilisé pour la fabrication d'armure</t>
+  </si>
+  <si>
+    <t>Jambière de chevalier</t>
+  </si>
+  <si>
+    <t>Pentalon en cuir +</t>
+  </si>
+  <si>
+    <t>Pentalon en tissu +</t>
+  </si>
+  <si>
+    <t>Tunique en cuir +</t>
+  </si>
+  <si>
+    <t>Robe en tissu +</t>
+  </si>
+  <si>
+    <t>Armure de chevalier</t>
+  </si>
+  <si>
+    <t>Jambière de très bonne qualité, équipement standard pour la garde royal</t>
+  </si>
+  <si>
+    <t>Armure de très bonne qualité, équipement standard pour la garde royal</t>
+  </si>
+  <si>
+    <t>22 robustesse</t>
+  </si>
+  <si>
+    <t>10 robustesse</t>
+  </si>
+  <si>
+    <t>30 robustesse</t>
   </si>
 </sst>
 </file>
@@ -483,8 +556,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -790,10 +863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1241,147 +1314,312 @@
       <c r="A23" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="3">
         <v>2</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="3">
         <v>5</v>
       </c>
-      <c r="E23" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="F23" s="13" t="s">
+      <c r="E23" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G23" s="23" t="s">
-        <v>87</v>
+      <c r="G23" s="8" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C24" s="13">
+      <c r="B24" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="4">
         <v>1</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="4">
         <v>5</v>
       </c>
-      <c r="E24" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="G24" s="23" t="s">
-        <v>92</v>
+      <c r="E24" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="9" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C25" s="13">
+      <c r="B25" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="3">
         <v>4</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G27" s="14" t="s">
-        <v>85</v>
+      <c r="E25" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="4">
+        <v>8</v>
+      </c>
+      <c r="D26" s="4">
+        <v>75</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="3">
+        <v>4</v>
+      </c>
+      <c r="D27" s="3">
+        <v>40</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="4">
+        <v>2</v>
+      </c>
+      <c r="D28" s="4">
+        <v>30</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="9" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="52.5" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="3">
         <v>3</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="3">
         <v>8</v>
       </c>
-      <c r="E30" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="G30" s="23" t="s">
-        <v>88</v>
+      <c r="E30" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B31" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C31" s="13">
+      <c r="B31" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="4">
         <v>1</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="4">
         <v>8</v>
       </c>
-      <c r="E31" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="G31" s="23" t="s">
-        <v>93</v>
+      <c r="E31" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="9" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="13" t="s">
-        <v>103</v>
-      </c>
+      <c r="B32" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" s="3">
+        <v>7</v>
+      </c>
+      <c r="D32" s="3">
+        <v>12</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" s="4">
+        <v>14</v>
+      </c>
+      <c r="D33" s="4">
+        <v>85</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="10"/>
     </row>
     <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C37" s="3">
         <v>4</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D37" s="3">
         <v>12</v>
       </c>
-      <c r="E37" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="F37" s="13" t="s">
+      <c r="E37" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G37" s="23" t="s">
-        <v>89</v>
+      <c r="G37" s="8" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B38" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C38" s="13">
+      <c r="B38" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="4">
         <v>2</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D38" s="4">
         <v>12</v>
       </c>
-      <c r="E38" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="G38" s="23" t="s">
-        <v>94</v>
-      </c>
+      <c r="E38" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F38" s="4"/>
+      <c r="G38" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="3">
+        <v>10</v>
+      </c>
+      <c r="D39" s="3">
+        <v>20</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="7"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="10"/>
     </row>
     <row r="44" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
         <v>82</v>
       </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C46" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Items.xlsx
+++ b/Items.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="139">
   <si>
     <t>Armes</t>
   </si>
@@ -427,6 +427,43 @@
   </si>
   <si>
     <t>30 robustesse</t>
+  </si>
+  <si>
+    <t>Pentalon en cuir de qualité supérieur, utilisé pour la fabrication d'armure</t>
+  </si>
+  <si>
+    <t>Tunique en cuir de qualité supérieur, utilisé pour la fabrication d'armure</t>
+  </si>
+  <si>
+    <t>Pentalon en tissu de qualité supérieur, utilisé pour la fabrication d'armure</t>
+  </si>
+  <si>
+    <t>Robe en tissu de qualité supérieur, utilisé pour la fabrication d'armure</t>
+  </si>
+  <si>
+    <t>12 robustesse
+6 esquive</t>
+  </si>
+  <si>
+    <t>8 robustesse
+8 atq magique</t>
+  </si>
+  <si>
+    <t>16 robustesse
+10 esquive</t>
+  </si>
+  <si>
+    <t>8 robustesse
+12 atq magique</t>
+  </si>
+  <si>
+    <t>20 atq physique</t>
+  </si>
+  <si>
+    <t>10 atq physique</t>
+  </si>
+  <si>
+    <t>Consommable</t>
   </si>
 </sst>
 </file>
@@ -863,20 +900,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" style="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.28515625" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="80.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="81.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" style="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="40.28515625" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" style="14" bestFit="1" customWidth="1"/>
   </cols>
@@ -1332,6 +1369,7 @@
       <c r="G23" s="8" t="s">
         <v>86</v>
       </c>
+      <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
@@ -1368,6 +1406,7 @@
       <c r="G25" s="7" t="s">
         <v>103</v>
       </c>
+      <c r="H25" s="7"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
@@ -1386,6 +1425,9 @@
       <c r="G26" s="10" t="s">
         <v>112</v>
       </c>
+      <c r="H26" s="14" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
@@ -1404,6 +1446,9 @@
       <c r="G27" s="8" t="s">
         <v>113</v>
       </c>
+      <c r="H27" s="7" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
@@ -1422,8 +1467,11 @@
       <c r="G28" s="9" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="H28" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
         <v>63</v>
       </c>
@@ -1445,6 +1493,7 @@
       <c r="G30" s="8" t="s">
         <v>87</v>
       </c>
+      <c r="H30" s="7"/>
     </row>
     <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
@@ -1481,8 +1530,9 @@
       <c r="G32" s="7" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
         <v>117</v>
       </c>
@@ -1499,28 +1549,53 @@
       <c r="G33" s="10" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
+      <c r="C34" s="3">
+        <v>6</v>
+      </c>
+      <c r="D34" s="3">
+        <v>45</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="F34" s="3"/>
-      <c r="G34" s="7"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G34" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
+      <c r="C35" s="4">
+        <v>2</v>
+      </c>
+      <c r="D35" s="4">
+        <v>33</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>130</v>
+      </c>
       <c r="F35" s="4"/>
-      <c r="G35" s="10"/>
-    </row>
-    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G35" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
         <v>64</v>
       </c>
@@ -1542,8 +1617,9 @@
       <c r="G37" s="8" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
         <v>94</v>
       </c>
@@ -1561,7 +1637,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
         <v>104</v>
       </c>
@@ -1578,13 +1654,18 @@
       <c r="G39" s="7" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
+      <c r="C40" s="4">
+        <v>20</v>
+      </c>
+      <c r="D40" s="4">
+        <v>120</v>
+      </c>
       <c r="E40" s="4" t="s">
         <v>124</v>
       </c>
@@ -1592,34 +1673,64 @@
       <c r="G40" s="10" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" s="14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B41" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
+      <c r="C41" s="3">
+        <v>7</v>
+      </c>
+      <c r="D41" s="3">
+        <v>55</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="F41" s="3"/>
-      <c r="G41" s="7"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G41" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
+      <c r="C42" s="4">
+        <v>3</v>
+      </c>
+      <c r="D42" s="4">
+        <v>47</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="F42" s="4"/>
-      <c r="G42" s="10"/>
-    </row>
-    <row r="44" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="G42" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C46" s="15"/>
+    </row>
+    <row r="51" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A51" s="20" t="s">
+        <v>138</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
